--- a/Data/Tags_fields/col_names_scopus.xlsx
+++ b/Data/Tags_fields/col_names_scopus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcastillot/Dropbox/Tesis/2021/Italy/Urbino/Data/Repos/bibliometrix_dd_europe/Data/Tags_fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A9E079-16C1-AB49-8818-F58F29334112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB3F441-5A2F-8A47-B39D-2F822569203F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
   <si>
     <t>Index</t>
   </si>
@@ -158,15 +158,9 @@
     <t>Tıs</t>
   </si>
   <si>
-    <t>pages</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
-    <t>article number</t>
-  </si>
-  <si>
     <t>Authors</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
     <t>Digital Object Identifier (DOI)</t>
   </si>
   <si>
-    <t>Web of Science Core Collection Times Cited Count</t>
-  </si>
-  <si>
     <t>Author Address</t>
   </si>
   <si>
@@ -231,6 +222,24 @@
   </si>
   <si>
     <t>Author year journal full</t>
+  </si>
+  <si>
+    <t>Var Type</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Times Cited Count</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Article number</t>
+  </si>
+  <si>
+    <t>Pages</t>
   </si>
 </sst>
 </file>
@@ -1085,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1097,7 +1106,7 @@
     <col min="3" max="3" width="42.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,8 +1116,11 @@
       <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1116,10 +1128,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1129,8 +1144,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1140,8 +1158,11 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1149,10 +1170,13 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1160,10 +1184,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1171,10 +1198,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1182,10 +1212,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1193,10 +1226,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1204,10 +1240,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1217,8 +1256,11 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1228,8 +1270,11 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1237,10 +1282,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1248,10 +1296,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1259,10 +1310,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1272,8 +1326,11 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1283,8 +1340,11 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1292,10 +1352,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1303,10 +1366,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1316,8 +1382,11 @@
       <c r="C20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1325,10 +1394,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1336,10 +1408,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1349,8 +1424,11 @@
       <c r="C23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1358,10 +1436,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1369,10 +1450,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1382,8 +1466,11 @@
       <c r="C26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1391,10 +1478,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1404,8 +1494,11 @@
       <c r="C28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1415,8 +1508,11 @@
       <c r="C29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1424,10 +1520,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1435,10 +1534,13 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1446,10 +1548,13 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1457,10 +1562,13 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1468,10 +1576,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1479,18 +1590,24 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1498,10 +1615,13 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1509,11 +1629,15 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C38" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>